--- a/Data/monthly_data_total.xlsx
+++ b/Data/monthly_data_total.xlsx
@@ -365,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,10 +2141,10 @@
         <v>43556</v>
       </c>
       <c r="B161" s="2">
-        <v>42361.61</v>
+        <v>42384.92</v>
       </c>
       <c r="C161" s="2">
-        <v>26023.18</v>
+        <v>26025.68</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,10 +2152,10 @@
         <v>43586</v>
       </c>
       <c r="B162" s="2">
-        <v>46618.8</v>
+        <v>46672.49</v>
       </c>
       <c r="C162" s="2">
-        <v>29854.240000000002</v>
+        <v>29847.360000000001</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2163,10 +2163,10 @@
         <v>43617</v>
       </c>
       <c r="B163" s="2">
-        <v>40941.24</v>
+        <v>41032.129999999997</v>
       </c>
       <c r="C163" s="2">
-        <v>24990.77</v>
+        <v>25017.07</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,10 +2174,10 @@
         <v>43647</v>
       </c>
       <c r="B164" s="2">
-        <v>39773.89</v>
+        <v>40430.18</v>
       </c>
       <c r="C164" s="2">
-        <v>26217.5</v>
+        <v>26227.1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,10 +2185,10 @@
         <v>43678</v>
       </c>
       <c r="B165" s="2">
-        <v>39558.33</v>
+        <v>39852.43</v>
       </c>
       <c r="C165" s="2">
-        <v>26133.5</v>
+        <v>25981.42</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,26 +2196,59 @@
         <v>43709</v>
       </c>
       <c r="B166" s="2">
-        <v>37346.35</v>
+        <v>37693.81</v>
       </c>
       <c r="C166" s="2">
-        <v>26086.02</v>
+        <v>26007.97</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B167" s="2">
+        <v>37241.53</v>
+      </c>
+      <c r="C167" s="2">
+        <v>26213.39</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B168" s="2">
+        <v>38101.94</v>
+      </c>
+      <c r="C168" s="2">
+        <v>25630.87</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B169" s="2">
+        <v>38577.339999999997</v>
+      </c>
+      <c r="C169" s="2">
+        <v>27142.63</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B170" s="2">
+        <v>41146.86</v>
+      </c>
+      <c r="C170" s="2">
+        <v>25882.9</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
